--- a/Src/DetailedSamples/Samples/Annotations/Output/IdentifyNotesFromComments.xlsx
+++ b/Src/DetailedSamples/Samples/Annotations/Output/IdentifyNotesFromComments.xlsx
@@ -2,11 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R6c16267c0f634b25"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R05004d43a6cf4c1a"/>
+    <sheet name="Sheet1" sheetId="1" r:id="R2c1b0c69125e4bfe"/>
   </sheets>
 </workbook>
 </file>
@@ -14,7 +13,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={238dd318-e60f-45c7-b38b-63cdb1e5e671}</author>
+    <author>tc={fee8d6a0-e3fc-46e0-8c23-805aa94e83d3}</author>
     <author>ACER</author>
   </authors>
   <commentList>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Identify Notes Or Comments</t>
   </si>
@@ -51,18 +50,12 @@
   <si>
     <t xml:space="preserve">Note</t>
   </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -72,12 +65,6 @@
       <b/>
       <color theme="1"/>
       <sz val="15.5"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -101,10 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -116,7 +102,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <person displayName="ACER" id="{66d949b8-66a2-42ac-ad1e-1280ea381d24}"/>
+  <person displayName="ACER" id="{7ec30c43-8708-4e49-a81a-83a5fc3e3d84}"/>
 </personList>
 </file>
 
@@ -383,7 +369,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <threadedComment ref="B3" id="{238dd318-e60f-45c7-b38b-63cdb1e5e671}" personId="{66d949b8-66a2-42ac-ad1e-1280ea381d24}" dT="2024-07-16T13:03:38.04">
+  <threadedComment ref="B3" id="{fee8d6a0-e3fc-46e0-8c23-805aa94e83d3}" personId="{7ec30c43-8708-4e49-a81a-83a5fc3e3d84}" dT="2024-10-02T17:26:39.59">
     <text>This is the title of the document.</text>
   </threadedComment>
 </ThreadedComments>
@@ -413,24 +399,4 @@
   </sheetData>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>